--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1139474.614088002</v>
+        <v>1137038.977164295</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673461</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.2131267027218</v>
+        <v>370.0648965483583</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>8.657084033295567</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>48.52634901049003</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.7172236952946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>121.113106973044</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>171.7647334826869</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>233.1639621694966</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814216</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991681</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7791108902777</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238038</v>
+        <v>22.60777203238067</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114108</v>
+        <v>97.97552699114125</v>
       </c>
       <c r="T11" t="n">
-        <v>12.77262696814673</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.0543222645813</v>
       </c>
       <c r="I12" t="n">
-        <v>9.75316679403528</v>
+        <v>9.753166794035423</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468621</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>56.67473094584442</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400679</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>153.5971524409597</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754666</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352842</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.49737834569061</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>77.41481868121856</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>34.21058558914794</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>42.53134576113705</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695614</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183142</v>
       </c>
       <c r="D22" t="n">
-        <v>9.146142788179482</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>123.7971820797021</v>
+        <v>83.06560892428088</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>110.1444095748064</v>
       </c>
       <c r="X28" t="n">
-        <v>115.7063133373728</v>
+        <v>225.7096553890354</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578126</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.81332727248884</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3086,10 +3086,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.2811815126423909</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.3870054807229</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.42659968729202</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.92847288552921</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3673,13 +3673,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>160.6789846282039</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>173.2052365248845</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>9.146142788179594</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>142.3575218158277</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>212.3267021497097</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410102</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2961.784676410102</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2571.64534443429</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686072</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064749</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080128</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986301</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.7574741064773</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1126.164195041455</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>836.7470250044946</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>608.7574741064773</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>608.7574741064773</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1281.167484680569</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,31 +4562,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410102</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X5" t="n">
-        <v>2961.784676410102</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>795.2798542473295</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1715.127619156077</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1715.127619156077</v>
       </c>
       <c r="U7" t="n">
-        <v>1250.51186045178</v>
+        <v>1715.127619156077</v>
       </c>
       <c r="V7" t="n">
-        <v>1250.51186045178</v>
+        <v>1715.127619156077</v>
       </c>
       <c r="W7" t="n">
-        <v>1250.51186045178</v>
+        <v>1425.710449119117</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1197.720898221099</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>976.9283190775692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136265</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2283.102991989294</v>
       </c>
     </row>
     <row r="9">
@@ -4875,16 +4875,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>1739.06094317356</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1577.667901870249</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>1219.402203263498</v>
       </c>
       <c r="E11" t="n">
         <v>1219.402203263498</v>
@@ -5030,61 +5030,61 @@
         <v>808.4162984738909</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035379</v>
+        <v>393.840852803538</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907327</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469176</v>
+        <v>78.51106622469158</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386815</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420314</v>
+        <v>704.5155104420292</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.41998130122</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1851.484858878103</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765423</v>
+        <v>2485.180661765417</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687099</v>
+        <v>3070.226377687091</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.04835985628</v>
+        <v>3535.048359856271</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882238</v>
+        <v>3835.937563882228</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234588</v>
+        <v>3925.553311234578</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455658</v>
+        <v>3826.588132455649</v>
       </c>
       <c r="T11" t="n">
-        <v>3813.686489053489</v>
+        <v>3826.588132455649</v>
       </c>
       <c r="U11" t="n">
-        <v>3813.686489053489</v>
+        <v>3573.097416088258</v>
       </c>
       <c r="V11" t="n">
-        <v>3482.623601709918</v>
+        <v>3242.034528744687</v>
       </c>
       <c r="W11" t="n">
-        <v>3482.623601709918</v>
+        <v>2889.265873474573</v>
       </c>
       <c r="X11" t="n">
-        <v>3109.157843448838</v>
+        <v>2515.800115213493</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473027</v>
+        <v>2125.660783237681</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503043</v>
+        <v>88.36274985503039</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469176</v>
+        <v>78.51106622469158</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469176</v>
+        <v>196.8120623792121</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831289</v>
+        <v>477.1621322376486</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104381</v>
+        <v>900.4499396649571</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754327</v>
+        <v>1413.763713908845</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105394</v>
+        <v>1955.072021259911</v>
       </c>
       <c r="O12" t="n">
-        <v>2309.742577971143</v>
+        <v>2198.621366333048</v>
       </c>
       <c r="P12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.6713627826855</v>
+        <v>537.1159667410773</v>
       </c>
       <c r="C13" t="n">
-        <v>226.4241598070849</v>
+        <v>537.1159667410773</v>
       </c>
       <c r="D13" t="n">
-        <v>226.4241598070849</v>
+        <v>537.1159667410773</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51106622469176</v>
+        <v>537.1159667410773</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469176</v>
+        <v>390.2260192431669</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469176</v>
+        <v>222.7461217197096</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469176</v>
+        <v>78.51106622469158</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469176</v>
+        <v>78.51106622469158</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600394</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457693</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.50022528889</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779219</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.75378454299</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715845</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082517</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.9090435511</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.9090435511</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906986</v>
+        <v>2155.9090435511</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457032</v>
+        <v>1935.094986101146</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.20361589732</v>
+        <v>1646.004279541434</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691433</v>
+        <v>1391.319791335547</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544727</v>
+        <v>1101.902621298587</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564554</v>
+        <v>873.9130704005693</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129252</v>
+        <v>718.764431571317</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5276,22 +5276,22 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K14" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
@@ -5303,25 +5303,25 @@
         <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608053</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698318</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.562310321959</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721295</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.534748721489</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>701.6502561102858</v>
+        <v>926.7369901548815</v>
       </c>
       <c r="C16" t="n">
-        <v>532.7140731823789</v>
+        <v>757.8008072269746</v>
       </c>
       <c r="D16" t="n">
-        <v>382.5974337700432</v>
+        <v>607.6841678146388</v>
       </c>
       <c r="E16" t="n">
-        <v>234.68434018765</v>
+        <v>459.7710742322456</v>
       </c>
       <c r="F16" t="n">
-        <v>234.68434018765</v>
+        <v>312.8811267343353</v>
       </c>
       <c r="G16" t="n">
-        <v>234.68434018765</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
         <v>92.81162322608053</v>
@@ -5461,25 +5461,25 @@
         <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1919.620778439277</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1664.93629023339</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>1375.519120196429</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373416</v>
+        <v>1147.529569298412</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938114</v>
+        <v>926.7369901548815</v>
       </c>
     </row>
     <row r="17">
@@ -5507,49 +5507,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>696.7084350851662</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>527.7722521572593</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>377.6556127449237</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>377.6556127449237</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1327.139029956953</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1099.149479058936</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>878.356899915406</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,16 +5765,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5978,46 +5978,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851667</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572598</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D25" t="n">
-        <v>527.7722521572598</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154064</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,10 +6218,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6239,16 +6239,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>874.8686257536378</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>705.932442825731</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>555.8158034133952</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>407.9027098310021</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330917</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1505.299220625423</v>
       </c>
       <c r="X28" t="n">
         <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>1056.517090583877</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,19 +6470,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6625,7 +6625,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614389</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>869.6905094135293</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856224</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>550.6376870732868</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797746</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.679061850319</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.824227505223</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614389</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>874.8686257536381</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.7594328861248</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C37" t="n">
-        <v>390.823249958218</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>240.7066105458821</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458821</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2425.823211978716</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1734.291686000759</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1479.607197794872</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>741.4078977163646</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="38">
@@ -7166,13 +7166,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,7 +7348,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
@@ -7357,25 +7357,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2227.361618603201</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V40" t="n">
-        <v>1972.677130397314</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W40" t="n">
-        <v>1683.259960360354</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1455.270409462336</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.899304487669</v>
+        <v>948.5505208511897</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597622</v>
+        <v>779.6143379232828</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232828</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408898</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429796</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1833.665603928864</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1578.981115722977</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1578.981115722977</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614389</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179088</v>
+        <v>1130.198985681429</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327645</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408908</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630042</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.4937808807299</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>188.9914624112312</v>
+        <v>201.764089379378</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.5720901527834</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034042</v>
+        <v>89.71507747034052</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146345</v>
+        <v>79.00824149146359</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>64.98750091113507</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729104</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613729121</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.3346018362467</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>88.12723419594836</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>111.2104624337833</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>138.4949402405075</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>127.7255247667964</v>
       </c>
       <c r="D22" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>22.63678056686703</v>
+        <v>63.36835372228829</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>176.3785887617846</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.9259388694756296</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.771326079606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24974,10 +24974,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.0940651974793</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.1976478713719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.8202214113358</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>45.44677382459248</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>45.37941682721032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.4693302300328</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>143.8269525734165</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>73.85777223953451</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875799.9884236832</v>
+        <v>875799.9884236824</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>952907.8351148837</v>
+        <v>952907.8351148838</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958156.3580759546</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958156.3580759546</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>958156.3580759546</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>958156.3580759547</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>958156.3580759544</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>958156.3580759546</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876632</v>
+        <v>423807.241587663</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918679</v>
+        <v>461540.8686918675</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
@@ -26335,25 +26335,25 @@
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="K2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185153</v>
+        <v>143114.1392185127</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051386</v>
+        <v>166521.347105141</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557928</v>
+        <v>11167.23623557887</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115319</v>
+        <v>37377.32855115247</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848931</v>
+        <v>43782.4065584899</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10457.96732947516</v>
@@ -26454,7 +26454,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214704</v>
+        <v>86093.72216214685</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1054323.791675155</v>
       </c>
       <c r="C6" t="n">
+        <v>274420.9540524374</v>
+      </c>
+      <c r="D6" t="n">
         <v>274420.9540524373</v>
       </c>
-      <c r="D6" t="n">
-        <v>274420.9540524376</v>
-      </c>
       <c r="E6" t="n">
-        <v>184141.4128775257</v>
+        <v>183931.4486336834</v>
       </c>
       <c r="F6" t="n">
-        <v>184326.8374073349</v>
+        <v>184280.9324117666</v>
       </c>
       <c r="G6" t="n">
-        <v>341262.440475486</v>
+        <v>341227.7025500507</v>
       </c>
       <c r="H6" t="n">
-        <v>352429.6767110654</v>
+        <v>352394.9387856296</v>
       </c>
       <c r="I6" t="n">
-        <v>352429.6767110654</v>
+        <v>352394.9387856296</v>
       </c>
       <c r="J6" t="n">
-        <v>134898.4743137879</v>
+        <v>134863.7363883521</v>
       </c>
       <c r="K6" t="n">
-        <v>352429.6767110652</v>
+        <v>352394.9387856297</v>
       </c>
       <c r="L6" t="n">
-        <v>352429.6767110655</v>
+        <v>352394.9387856297</v>
       </c>
       <c r="M6" t="n">
-        <v>315052.348159912</v>
+        <v>315017.6102344771</v>
       </c>
       <c r="N6" t="n">
-        <v>308647.270152576</v>
+        <v>308612.5322271397</v>
       </c>
       <c r="O6" t="n">
-        <v>349406.3787338405</v>
+        <v>349371.6408084051</v>
       </c>
       <c r="P6" t="n">
-        <v>352429.6767110652</v>
+        <v>352394.9387856297</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494553</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808647</v>
+        <v>981.3883278086446</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012571</v>
+        <v>122.3935669012551</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218304</v>
+        <v>145.8707812218324</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063546</v>
+        <v>149.9868724063517</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173595</v>
+        <v>178.7569625173619</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063546</v>
+        <v>149.9868724063517</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173595</v>
+        <v>178.7569625173619</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063546</v>
+        <v>149.9868724063517</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173595</v>
+        <v>178.7569625173619</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.5207149607588</v>
+        <v>12.66894511512231</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>243.4805592905324</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>333.4040210617717</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.520714960759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>68.6559183583979</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>114.447104722926</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>149.5698794939839</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803269</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>24.68204843992099</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28065,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356961</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-5.398696565172219e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.790567694115452e-12</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485646</v>
+        <v>4.873046301485638</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508988</v>
+        <v>49.90608543508981</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380255</v>
+        <v>187.8681175380252</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307177</v>
+        <v>413.5937135307171</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726052</v>
+        <v>619.8697634726043</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216967</v>
+        <v>769.0032542216954</v>
       </c>
       <c r="M11" t="n">
-        <v>855.664291385742</v>
+        <v>855.6642913857406</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898381</v>
+        <v>869.5098341898369</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294402</v>
+        <v>821.0534800294389</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615132</v>
+        <v>700.7501494615121</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895583</v>
+        <v>526.2341787895575</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356979</v>
+        <v>306.1064947356975</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951041</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475342</v>
+        <v>21.33176018475339</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188516</v>
+        <v>0.389843704118851</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969421</v>
+        <v>2.607309631969417</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1811219719152</v>
+        <v>25.18112197191516</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596472</v>
+        <v>89.76921320596458</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783036</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202551</v>
+        <v>421.0233277202545</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256411</v>
+        <v>566.1178216256403</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845325</v>
+        <v>660.6327957845315</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147136</v>
+        <v>678.1177801147126</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431805</v>
+        <v>388.6056839122595</v>
       </c>
       <c r="P12" t="n">
-        <v>385.6381359012577</v>
+        <v>497.881784020546</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697583</v>
+        <v>48.42963285697576</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780655</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.1715335284190407</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.18588081023608</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737173</v>
+        <v>19.4344675673717</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691787</v>
+        <v>65.73539745691777</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836908</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619736</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509173</v>
+        <v>324.9808615509169</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263707</v>
+        <v>342.6467528263702</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973092</v>
+        <v>334.4993788973087</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050057</v>
+        <v>308.9643167050053</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761894</v>
+        <v>264.372348176189</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916778</v>
+        <v>183.0377103916776</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570603</v>
+        <v>98.28514988570589</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929609</v>
+        <v>38.09394102929603</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826897</v>
+        <v>9.339672552826883</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765136</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,31 +32069,31 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059974</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040314</v>
+        <v>232.5478090040308</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276247</v>
+        <v>399.7799124276237</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517094</v>
+        <v>533.2368392517083</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584693</v>
+        <v>625.3180581584679</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932471</v>
+        <v>640.096770593246</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077534</v>
+        <v>590.9552686077521</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062436</v>
+        <v>469.5171537062426</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151088</v>
+        <v>303.928488915108</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156581</v>
+        <v>90.52095692156536</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116369</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458961</v>
+        <v>283.1818887458955</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457669</v>
+        <v>427.5634418457661</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625141</v>
+        <v>518.4987618625132</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313803</v>
+        <v>546.7760680313793</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987361</v>
+        <v>246.0094394678151</v>
       </c>
       <c r="P12" t="n">
-        <v>251.6637284869275</v>
+        <v>363.9073766062157</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701827</v>
+        <v>61.18259316701804</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360911</v>
+        <v>231.6901150360907</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112334</v>
+        <v>352.570886811233</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882113</v>
+        <v>382.2306297882108</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765377</v>
+        <v>378.6315512765373</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190454</v>
+        <v>333.5494446190449</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410829</v>
+        <v>261.6509074410825</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998343</v>
+        <v>96.87566713998318</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916671</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
